--- a/data/trans_camb/P2A_lim_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_lim_R-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.735563881810258</v>
+        <v>1.493107763895074</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8793047332627212</v>
+        <v>0.7086178571513169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.729272557110892</v>
+        <v>5.700574017980585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.119093314221316</v>
+        <v>2.855324953361443</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7767520434677949</v>
+        <v>1.103325032586444</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.76587276544338</v>
+        <v>5.622100594805426</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.893710908272769</v>
+        <v>3.128693341207006</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.602456785377484</v>
+        <v>1.611250167086091</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.62003401364578</v>
+        <v>6.677817158853712</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.414037861976121</v>
+        <v>7.094844085064432</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.364624335836931</v>
+        <v>6.229100801123574</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.6608355120213</v>
+        <v>11.54686231296698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.305180231706327</v>
+        <v>8.845350840882384</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.605553916312319</v>
+        <v>6.459224077787186</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.10763502203027</v>
+        <v>11.20401176389582</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.139389261235602</v>
+        <v>7.101356176749546</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.780824125546218</v>
+        <v>5.561881182490207</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.62544996914957</v>
+        <v>10.57841535465852</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2549475002646363</v>
+        <v>0.2510352036047757</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.105163360540911</v>
+        <v>0.1063929651470258</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.8986000005886243</v>
+        <v>0.8934363843353553</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4301310073825203</v>
+        <v>0.3936242767824676</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1026444373091074</v>
+        <v>0.1457754741414554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8414794872149648</v>
+        <v>0.8189842726064811</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4513186587409645</v>
+        <v>0.5371719860082866</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2426539168472581</v>
+        <v>0.2765274307143415</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.080932214663916</v>
+        <v>1.111181557532082</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.816491972042801</v>
+        <v>1.756321684251117</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.499126140477105</v>
+        <v>1.587998471176643</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.007465782830648</v>
+        <v>2.929507129823181</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.207259782930919</v>
+        <v>2.014458501587813</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.497270548767523</v>
+        <v>1.495687915618366</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.790661840514124</v>
+        <v>2.659065527218079</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.622522110530906</v>
+        <v>1.64015418002574</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.245402212666188</v>
+        <v>1.237203750843699</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.378756150641486</v>
+        <v>2.477891929152923</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.165243154961036</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>8.187597244991171</v>
+        <v>8.187597244991174</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.588343765925607</v>
@@ -878,7 +878,7 @@
         <v>0.4162673408367637</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>7.614359833863634</v>
+        <v>7.614359833863636</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3158023010285835</v>
+        <v>0.3000470731080374</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.536389295211562</v>
+        <v>-2.788819426505601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.959875986505524</v>
+        <v>4.206838530530923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.600810129737824</v>
+        <v>1.372685733614047</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.317111803479652</v>
+        <v>-1.490352274499118</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.623074581607742</v>
+        <v>5.510324027904932</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.716197162479019</v>
+        <v>1.713627991558136</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.232754413341511</v>
+        <v>-1.456944866945442</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.7670712245244</v>
+        <v>5.666101219189388</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.464413199717452</v>
+        <v>5.474496836236097</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.065059338515636</v>
+        <v>2.188685512724385</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.939478940918397</v>
+        <v>10.1286442610622</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.080476793940378</v>
+        <v>6.828180838313582</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.812245525375137</v>
+        <v>3.461958934301434</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.69767756012722</v>
+        <v>10.82939384906944</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.457631088318273</v>
+        <v>5.456953544397886</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.160701837449466</v>
+        <v>2.316318373773513</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.626789915680655</v>
+        <v>9.678154486722303</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1514599819050979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.064235670720639</v>
+        <v>1.06423567072064</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.4856326481325385</v>
@@ -983,7 +983,7 @@
         <v>0.0563360213648601</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.030498182773577</v>
+        <v>1.030498182773578</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02254395598489047</v>
+        <v>0.03337344824609707</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3099366294059251</v>
+        <v>-0.3199856183948274</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4896472814409116</v>
+        <v>0.4889947540239414</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1788060067773356</v>
+        <v>0.152144636044439</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1464464498267618</v>
+        <v>-0.1685264777537163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6125299465996656</v>
+        <v>0.6167238252120891</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2071315808119454</v>
+        <v>0.1865741846275952</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1581309743531128</v>
+        <v>-0.1688253218298621</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.686902739123038</v>
+        <v>0.6707362478479761</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9223297478509008</v>
+        <v>0.921754038067932</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3520868649588316</v>
+        <v>0.3509940780367221</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.659143621785895</v>
+        <v>1.699091883697257</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.116003342768973</v>
+        <v>1.04544878095695</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5935969941997935</v>
+        <v>0.5438006791143363</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.711236036626783</v>
+        <v>1.737411774685014</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.842070854248226</v>
+        <v>0.8190514551256872</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3346677598710851</v>
+        <v>0.351024926045593</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.498650166230724</v>
+        <v>1.533163592328568</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.774074525113679</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>7.510400503273426</v>
+        <v>7.510400503273424</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.515194350542688</v>
@@ -1092,7 +1092,7 @@
         <v>-2.20870584829549</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.949877130095402</v>
+        <v>7.949877130095399</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9877396549186762</v>
+        <v>-1.279329219041164</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.036884798817734</v>
+        <v>-5.466424880731238</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.147000061614883</v>
+        <v>5.231283900741587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.699124536314561</v>
+        <v>-1.575858380929287</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.785887507987209</v>
+        <v>-4.538865614947959</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.178617051903601</v>
+        <v>4.286608290299481</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4847901026282731</v>
+        <v>-0.5606470307465693</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.058446835530635</v>
+        <v>-3.950714121410325</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.586698001354453</v>
+        <v>5.687296907981018</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.981395546856077</v>
+        <v>4.715035867358435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1970710634382181</v>
+        <v>0.03408444310576436</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.85635243411045</v>
+        <v>12.09477463694963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.531798439111158</v>
+        <v>4.572332702270936</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.953910725488709</v>
+        <v>1.022497529891104</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.83274142418271</v>
+        <v>10.59609664458165</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.699994065004558</v>
+        <v>3.637352828378714</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.3848599145421904</v>
+        <v>-0.1690109649649734</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.45145228891303</v>
+        <v>10.18326150060332</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.2075115359039693</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8784832438695591</v>
+        <v>0.8784832438695588</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1963116104868896</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2861643471779058</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.030001980949144</v>
+        <v>1.030001980949143</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.138015296933799</v>
+        <v>-0.1594386369590401</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6097965116146298</v>
+        <v>-0.6322149542338515</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6115885064080788</v>
+        <v>0.5992575691313295</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1789756234972844</v>
+        <v>-0.1665099800402263</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4740001620243702</v>
+        <v>-0.4522637191284168</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4075224101125267</v>
+        <v>0.4100535829111457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06020985282945786</v>
+        <v>-0.06832624987351522</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.456602618294243</v>
+        <v>-0.4494050995492468</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6517753099444782</v>
+        <v>0.6592882567030424</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9017582208275443</v>
+        <v>0.8629541496422761</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.01559652645111093</v>
+        <v>0.008840944580033868</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.105308905420634</v>
+        <v>2.235022270737039</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6316424299039051</v>
+        <v>0.6920811897267417</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1398443168453906</v>
+        <v>0.1573889214567594</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.630044047939002</v>
+        <v>1.511518905562204</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5401311514434197</v>
+        <v>0.545598415810413</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.05556172047610197</v>
+        <v>-0.0132225106245385</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.6074597588519</v>
+        <v>1.490835190132022</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-0.02807730187223134</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.556604422302841</v>
+        <v>2.556604422302844</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.660116027882879</v>
@@ -1306,7 +1306,7 @@
         <v>0.6426619134721256</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.33314008589564</v>
+        <v>3.333140085895642</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2084322188817392</v>
+        <v>0.5001289315420668</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9758732075321663</v>
+        <v>-1.064693659156472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.701638546108267</v>
+        <v>1.482899293205396</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2671814818865261</v>
+        <v>-0.267541261934593</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.90446611324487</v>
+        <v>-2.833036184064137</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.01135008739289287</v>
+        <v>-0.2100838920854461</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.618853196369881</v>
+        <v>0.6967782121427305</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.210610748879307</v>
+        <v>-1.39836080860265</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.294039498137858</v>
+        <v>1.483872734159337</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.516547769943704</v>
+        <v>5.609146302404792</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.87945818243654</v>
+        <v>3.807977808562702</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.222095618321436</v>
+        <v>6.614030444546938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.358629501726942</v>
+        <v>5.558787533992618</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.686979469521161</v>
+        <v>2.722124463209675</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.06897001396818</v>
+        <v>5.004488217287901</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.650974413183021</v>
+        <v>4.628875634891044</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.612566149709098</v>
+        <v>2.359171245829186</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.090098514698658</v>
+        <v>5.15761366073332</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.002870949873466088</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.261416968628755</v>
+        <v>0.2614169686287552</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3115748223661988</v>
@@ -1411,7 +1411,7 @@
         <v>0.0752738863390718</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3904049745571156</v>
+        <v>0.3904049745571158</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02340423147430712</v>
+        <v>0.0447466742123083</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1239179864334488</v>
+        <v>-0.1395859615443332</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1878746182975418</v>
+        <v>0.1746842154631178</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02363100098834213</v>
+        <v>-0.02367301656725269</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2614842529150307</v>
+        <v>-0.2435046803270979</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01045628440797708</v>
+        <v>-0.01963153462826286</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06614079444078032</v>
+        <v>0.07236239036076848</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1288251715944725</v>
+        <v>-0.1476467469138925</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1421668389732029</v>
+        <v>0.1487064521381985</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9271231497249284</v>
+        <v>0.9030667337720015</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.638042880363716</v>
+        <v>0.5989335402849894</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.256732151775878</v>
+        <v>1.099678018582084</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6321262085651235</v>
+        <v>0.6722717849490568</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.315413054415092</v>
+        <v>0.3274931998073872</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5989602711739821</v>
+        <v>0.5917390676519175</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6101602837061825</v>
+        <v>0.5975346265202249</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3384159730525856</v>
+        <v>0.3109691006531014</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6692125708310427</v>
+        <v>0.6713841869994641</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.6687762982478127</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.457541064683757</v>
+        <v>6.45754106468376</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.182455053982348</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.571260814063222</v>
+        <v>1.521006615800888</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8789311392780533</v>
+        <v>-0.9201515498671381</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.478397549917808</v>
+        <v>5.413303083822864</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.977802287137629</v>
+        <v>1.991085317078762</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7048635752767076</v>
+        <v>-0.6170889333657307</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.024777173470468</v>
+        <v>5.076676817283714</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.168567024136805</v>
+        <v>2.221464311960428</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.4097381758926981</v>
+        <v>-0.4768923835939173</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.565307763846215</v>
+        <v>5.640514768099337</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.274531538384271</v>
+        <v>4.348836370611293</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.616570104818821</v>
+        <v>1.716349350771134</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.443462557340849</v>
+        <v>8.4666636500286</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.04948212467312</v>
+        <v>4.976744520035103</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.066035485821342</v>
+        <v>2.079006842572924</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.74205297029833</v>
+        <v>7.844157180860951</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.296546685224095</v>
+        <v>4.201174670800952</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.444708956137654</v>
+        <v>1.473711327605025</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.607265723158125</v>
+        <v>7.707800792236133</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.08315475932622317</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8029221048650359</v>
+        <v>0.8029221048650362</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4322009587841483</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2178463376350431</v>
+        <v>0.2082810753178573</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.120990395027456</v>
+        <v>-0.1294270194613141</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7451384454183413</v>
+        <v>0.7593551922774737</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2220773774433033</v>
+        <v>0.2370522800990407</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.08173528671295088</v>
+        <v>-0.07126063291418815</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5681472271051438</v>
+        <v>0.5652964782620634</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2760079674826403</v>
+        <v>0.2822277680976936</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05058257689356245</v>
+        <v>-0.06293961240126615</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.700525919733504</v>
+        <v>0.7087476326740817</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7108528750800603</v>
+        <v>0.6970393405075853</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2655698015771804</v>
+        <v>0.2821100404204378</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.431687547598665</v>
+        <v>1.424531067746269</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6813034439727425</v>
+        <v>0.6804222624348443</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2896463765398892</v>
+        <v>0.2793188355695809</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.051677681644487</v>
+        <v>1.05976572605801</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6147566829475886</v>
+        <v>0.594702950423458</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2105092982432977</v>
+        <v>0.2121994186016925</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.100717932415363</v>
+        <v>1.110889227082232</v>
       </c>
     </row>
     <row r="34">
